--- a/file/date.xlsx
+++ b/file/date.xlsx
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -385,276 +385,286 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44866</v>
+        <v>44927</v>
       </c>
       <c r="B2" t="str">
-        <f>CHOOSE(WEEKDAY(A2,1),"日","一","二","三","四","五","六")</f>
-        <v>二</v>
+        <f t="shared" ref="B2:B5" si="0">CHOOSE(WEEKDAY(A2,1),"日","一","二","三","四","五","六")</f>
+        <v>日</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44867</v>
+        <v>44928</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B31" si="0">CHOOSE(WEEKDAY(A3,1),"日","一","二","三","四","五","六")</f>
-        <v>三</v>
+        <f t="shared" si="0"/>
+        <v>一</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44868</v>
+        <v>44929</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>四</v>
+        <v>二</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44869</v>
+        <v>44930</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>五</v>
+        <v>三</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44870</v>
+        <v>44931</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>六</v>
+        <f t="shared" ref="B6:B32" si="1">CHOOSE(WEEKDAY(A6,1),"日","一","二","三","四","五","六")</f>
+        <v>四</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44871</v>
+        <v>44932</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>日</v>
+        <f t="shared" si="1"/>
+        <v>五</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>44872</v>
+        <v>44933</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>一</v>
+        <f t="shared" si="1"/>
+        <v>六</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44873</v>
+        <v>44934</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>二</v>
+        <f t="shared" si="1"/>
+        <v>日</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44874</v>
+        <v>44935</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>三</v>
+        <f t="shared" si="1"/>
+        <v>一</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44875</v>
+        <v>44936</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>四</v>
+        <f t="shared" si="1"/>
+        <v>二</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44876</v>
+        <v>44937</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>五</v>
+        <f t="shared" si="1"/>
+        <v>三</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44877</v>
+        <v>44938</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>六</v>
+        <f t="shared" si="1"/>
+        <v>四</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>44878</v>
+        <v>44939</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>日</v>
+        <f t="shared" si="1"/>
+        <v>五</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>44879</v>
+        <v>44940</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>一</v>
+        <f t="shared" si="1"/>
+        <v>六</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>44880</v>
+        <v>44941</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>二</v>
+        <f t="shared" si="1"/>
+        <v>日</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>44881</v>
+        <v>44942</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>三</v>
+        <f t="shared" si="1"/>
+        <v>一</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>44882</v>
+        <v>44943</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>四</v>
+        <f t="shared" si="1"/>
+        <v>二</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>44883</v>
+        <v>44944</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>五</v>
+        <f t="shared" si="1"/>
+        <v>三</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>44884</v>
+        <v>44945</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>六</v>
+        <f t="shared" si="1"/>
+        <v>四</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>44885</v>
+        <v>44946</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>日</v>
+        <f t="shared" si="1"/>
+        <v>五</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>44886</v>
+        <v>44947</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>一</v>
+        <f t="shared" si="1"/>
+        <v>六</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>44887</v>
+        <v>44948</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>二</v>
+        <f t="shared" si="1"/>
+        <v>日</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>44888</v>
+        <v>44949</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>三</v>
+        <f t="shared" si="1"/>
+        <v>一</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>44889</v>
+        <v>44950</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>四</v>
+        <f t="shared" si="1"/>
+        <v>二</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>44890</v>
+        <v>44951</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>五</v>
+        <f t="shared" si="1"/>
+        <v>三</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>44891</v>
+        <v>44952</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>六</v>
+        <f t="shared" si="1"/>
+        <v>四</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>44892</v>
+        <v>44953</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>日</v>
+        <f t="shared" si="1"/>
+        <v>五</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>44893</v>
+        <v>44954</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>一</v>
+        <f t="shared" si="1"/>
+        <v>六</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>44894</v>
+        <v>44955</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v>二</v>
+        <f t="shared" si="1"/>
+        <v>日</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>44895</v>
+        <v>44956</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>三</v>
+        <f t="shared" si="1"/>
+        <v>一</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="1"/>
+        <v>二</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>